--- a/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:59:29+00:00</t>
+    <t>2025-09-22T09:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:16:12+00:00</t>
+    <t>2025-09-22T09:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:19:42+00:00</t>
+    <t>2025-09-22T10:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T10:03:14+00:00</t>
+    <t>2025-10-15T12:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:35:06+00:00</t>
+    <t>2025-10-17T07:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
